--- a/202407_【業務委託】作業報告書.xlsx
+++ b/202407_【業務委託】作業報告書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\01.kusano\01.レバテック\03.テクノプロ\作業報告書・立替金精算書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C366FC1-5AF4-408A-A0C0-34086FF938A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E7FDCE-8ADC-481E-8CDF-34A641BAB372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5205" yWindow="270" windowWidth="21600" windowHeight="15045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>作業報告書</t>
   </si>
@@ -123,6 +123,36 @@
   </si>
   <si>
     <t>株式会社テクノプロ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>PC開発環境設定</t>
+    <rPh sb="2" eb="4">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>仕様調査</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>コード調査</t>
+    <rPh sb="3" eb="5">
+      <t>チョウサ</t>
+    </rPh>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -431,6 +461,45 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="55" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -446,9 +515,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -463,42 +529,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="55" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -846,7 +876,7 @@
   <dimension ref="A1:U229"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="I21" sqref="I21:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -865,20 +895,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
       <c r="M1" s="13"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -899,71 +929,71 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="24"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="37"/>
       <c r="I3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="33">
+      <c r="J3" s="21">
         <v>45474</v>
       </c>
-      <c r="K3" s="33"/>
+      <c r="K3" s="21"/>
       <c r="M3" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="39" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="22"/>
+      <c r="K4" s="35"/>
       <c r="M4" s="16"/>
     </row>
     <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
       <c r="M5" s="16"/>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="39" t="s">
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="41" t="s">
+      <c r="J6" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="42" t="s">
+      <c r="K6" s="30" t="s">
         <v>6</v>
       </c>
       <c r="M6" s="15" t="s">
@@ -971,16 +1001,16 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="42"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="30"/>
       <c r="M7" s="16"/>
     </row>
     <row r="8" spans="1:15" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
@@ -997,18 +1027,18 @@
       <c r="M8" s="16"/>
     </row>
     <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
       <c r="M9" s="16"/>
     </row>
     <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1064,9 +1094,9 @@
         <f>IF(OR(E11="",F11=""),0,F11-E11-G11)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
       <c r="M11" s="16" t="s">
         <v>18</v>
       </c>
@@ -1091,9 +1121,9 @@
         <f t="shared" ref="H12:H41" si="3">IF(OR(E12="",F12=""),0,F12-E12-G12)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
       <c r="M12" s="16" t="s">
         <v>19</v>
       </c>
@@ -1118,9 +1148,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
       <c r="M13" s="16" t="s">
         <v>20</v>
       </c>
@@ -1145,9 +1175,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
       <c r="M14" s="16" t="s">
         <v>21</v>
       </c>
@@ -1172,9 +1202,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
       <c r="M15" s="16" t="s">
         <v>22</v>
       </c>
@@ -1199,9 +1229,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
       <c r="M16" s="16"/>
     </row>
     <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1224,9 +1254,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
       <c r="N17" s="17">
         <v>42005</v>
       </c>
@@ -1258,9 +1288,11 @@
         <f t="shared" si="3"/>
         <v>0.36458333333333337</v>
       </c>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
+      <c r="I18" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
       <c r="N18" s="18">
         <v>42036</v>
       </c>
@@ -1279,16 +1311,24 @@
         <f t="shared" si="2"/>
         <v>火</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="E19" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="G19" s="6">
+        <v>3.125E-2</v>
+      </c>
       <c r="H19" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
+        <v>0.34375</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
       <c r="N19" s="17">
         <v>42064</v>
       </c>
@@ -1307,16 +1347,24 @@
         <f t="shared" si="2"/>
         <v>水</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="E20" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="G20" s="6">
+        <v>3.125E-2</v>
+      </c>
       <c r="H20" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
+        <v>0.34375</v>
+      </c>
+      <c r="I20" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
       <c r="N20" s="18">
         <v>42095</v>
       </c>
@@ -1342,9 +1390,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
       <c r="N21" s="17">
         <v>42125</v>
       </c>
@@ -1370,9 +1418,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
       <c r="N22" s="18">
         <v>42156</v>
       </c>
@@ -1398,9 +1446,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
       <c r="N23" s="17">
         <v>42186</v>
       </c>
@@ -1426,9 +1474,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
       <c r="N24" s="18">
         <v>42217</v>
       </c>
@@ -1454,9 +1502,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
       <c r="N25" s="17">
         <v>42248</v>
       </c>
@@ -1482,9 +1530,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
       <c r="N26" s="18">
         <v>42278</v>
       </c>
@@ -1510,9 +1558,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
       <c r="N27" s="17">
         <v>42309</v>
       </c>
@@ -1538,9 +1586,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
       <c r="N28" s="18">
         <v>42339</v>
       </c>
@@ -1566,9 +1614,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
       <c r="N29" s="17">
         <v>42370</v>
       </c>
@@ -1594,9 +1642,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
       <c r="N30" s="18">
         <v>42401</v>
       </c>
@@ -1622,9 +1670,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
       <c r="N31" s="17">
         <v>42430</v>
       </c>
@@ -1650,9 +1698,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
       <c r="N32" s="18">
         <v>42461</v>
       </c>
@@ -1678,9 +1726,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
       <c r="N33" s="17">
         <v>42491</v>
       </c>
@@ -1706,9 +1754,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
       <c r="N34" s="18">
         <v>42522</v>
       </c>
@@ -1734,9 +1782,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
       <c r="N35" s="17">
         <v>42552</v>
       </c>
@@ -1762,9 +1810,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
       <c r="N36" s="18">
         <v>42583</v>
       </c>
@@ -1790,9 +1838,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
       <c r="N37" s="17">
         <v>42614</v>
       </c>
@@ -1818,9 +1866,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
       <c r="N38" s="18">
         <v>42644</v>
       </c>
@@ -1846,9 +1894,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
       <c r="N39" s="17">
         <v>42675</v>
       </c>
@@ -1874,9 +1922,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
       <c r="N40" s="18">
         <v>42705</v>
       </c>
@@ -1902,31 +1950,31 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
       <c r="N41" s="17">
         <v>42736</v>
       </c>
       <c r="O41" s="17"/>
     </row>
     <row r="42" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="27"/>
-      <c r="D42" s="28"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="40"/>
       <c r="E42" s="10">
         <f>COUNTA(E11:E41)</f>
-        <v>1</v>
-      </c>
-      <c r="F42" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="G42" s="29"/>
+      <c r="G42" s="41"/>
       <c r="H42" s="12">
         <f>SUM(H11:H41)</f>
-        <v>0.36458333333333337</v>
+        <v>1.0520833333333335</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -1943,82 +1991,82 @@
       <c r="O43" s="18"/>
     </row>
     <row r="44" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="42"/>
       <c r="N44" s="18">
         <v>42826</v>
       </c>
       <c r="O44" s="17"/>
     </row>
     <row r="45" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
       <c r="N45" s="17">
         <v>42856</v>
       </c>
       <c r="O45" s="17"/>
     </row>
     <row r="46" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="21"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
       <c r="N46" s="18">
         <v>42887</v>
       </c>
       <c r="O46" s="17"/>
     </row>
     <row r="47" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="34"/>
       <c r="N47" s="17">
         <v>42917</v>
       </c>
       <c r="O47" s="17"/>
     </row>
     <row r="48" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="21"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="34"/>
       <c r="N48" s="17">
         <v>42948</v>
       </c>
@@ -2070,7 +2118,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
-      <c r="K51" s="20"/>
+      <c r="K51" s="33"/>
       <c r="M51" s="14" t="s">
         <v>27</v>
       </c>
@@ -2095,7 +2143,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
-      <c r="K52" s="20"/>
+      <c r="K52" s="33"/>
       <c r="M52" s="19"/>
       <c r="N52" s="17">
         <v>43070</v>
@@ -3109,38 +3157,6 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B9:K9"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
     <mergeCell ref="K51:K52"/>
     <mergeCell ref="B45:K48"/>
     <mergeCell ref="J4:K5"/>
@@ -3157,6 +3173,38 @@
     <mergeCell ref="I39:K39"/>
     <mergeCell ref="I30:K30"/>
     <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B9:K9"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="H42 B11:J41">

--- a/202407_【業務委託】作業報告書.xlsx
+++ b/202407_【業務委託】作業報告書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\01.kusano\01.レバテック\03.テクノプロ\作業報告書・立替金精算書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E7FDCE-8ADC-481E-8CDF-34A641BAB372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932F6D42-82F6-425E-8C7F-EC7CF9D9DACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5205" yWindow="270" windowWidth="21600" windowHeight="15045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>作業報告書</t>
   </si>
@@ -152,6 +152,26 @@
     <t>コード調査</t>
     <rPh sb="3" eb="5">
       <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>コード調査、仕様書作成</t>
+    <rPh sb="3" eb="5">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>祝日</t>
+    <rPh sb="0" eb="2">
+      <t>シュクジツ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
@@ -875,8 +895,8 @@
   </sheetPr>
   <dimension ref="A1:U229"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21:K21"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26:K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1282,11 +1302,11 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="G18" s="6">
-        <v>3.125E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" si="3"/>
-        <v>0.36458333333333337</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="I18" s="32" t="s">
         <v>30</v>
@@ -1318,11 +1338,11 @@
         <v>0.75</v>
       </c>
       <c r="G19" s="6">
-        <v>3.125E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" si="3"/>
-        <v>0.34375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I19" s="32" t="s">
         <v>31</v>
@@ -1354,11 +1374,11 @@
         <v>0.75</v>
       </c>
       <c r="G20" s="6">
-        <v>3.125E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" si="3"/>
-        <v>0.34375</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I20" s="32" t="s">
         <v>32</v>
@@ -1383,14 +1403,22 @@
         <f t="shared" si="2"/>
         <v>木</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
+      <c r="E21" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="G21" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="H21" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="32"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I21" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="J21" s="32"/>
       <c r="K21" s="32"/>
       <c r="N21" s="17">
@@ -1411,14 +1439,22 @@
         <f t="shared" si="2"/>
         <v>金</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="E22" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G22" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="H22" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="32"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I22" s="32" t="s">
+        <v>32</v>
+      </c>
       <c r="J22" s="32"/>
       <c r="K22" s="32"/>
       <c r="N22" s="18">
@@ -1502,7 +1538,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I25" s="32"/>
+      <c r="I25" s="32" t="s">
+        <v>34</v>
+      </c>
       <c r="J25" s="32"/>
       <c r="K25" s="32"/>
       <c r="N25" s="17">
@@ -1523,14 +1561,22 @@
         <f t="shared" si="2"/>
         <v>火</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
+      <c r="E26" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="G26" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="H26" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="32"/>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="I26" s="32" t="s">
+        <v>33</v>
+      </c>
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
       <c r="N26" s="18">
@@ -1966,7 +2012,7 @@
       <c r="D42" s="40"/>
       <c r="E42" s="10">
         <f>COUNTA(E11:E41)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F42" s="40" t="s">
         <v>24</v>
@@ -1974,7 +2020,7 @@
       <c r="G42" s="41"/>
       <c r="H42" s="12">
         <f>SUM(H11:H41)</f>
-        <v>1.0520833333333335</v>
+        <v>1.9791666666666665</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -3207,7 +3253,7 @@
     <mergeCell ref="K6:K7"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
-  <conditionalFormatting sqref="H42 B11:J41">
+  <conditionalFormatting sqref="B11:J41 H42">
     <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>$D11="日"</formula>
     </cfRule>

--- a/202407_【業務委託】作業報告書.xlsx
+++ b/202407_【業務委託】作業報告書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\01.kusano\01.レバテック\03.テクノプロ\作業報告書・立替金精算書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00.kusano\作業報告書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932F6D42-82F6-425E-8C7F-EC7CF9D9DACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9304222-30BD-49F7-A86A-100D9D4E6FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5205" yWindow="270" windowWidth="21600" windowHeight="15045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4250" yWindow="11240" windowWidth="21920" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="作業報告書" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,24 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">作業報告書!$A$1:$L$53</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>作業報告書</t>
   </si>
@@ -171,6 +184,16 @@
   <si>
     <t>祝日</t>
     <rPh sb="0" eb="2">
+      <t>シュクジツ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>全休（TOPCON祝日）</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンキュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
       <t>シュクジツ</t>
     </rPh>
     <phoneticPr fontId="8"/>
@@ -481,6 +504,42 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -513,42 +572,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -594,7 +617,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>546393</xdr:colOff>
+      <xdr:colOff>549568</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>228640</xdr:rowOff>
     </xdr:to>
@@ -895,8 +918,8 @@
   </sheetPr>
   <dimension ref="A1:U229"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26:K26"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A30" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35:K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -915,20 +938,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
       <c r="M1" s="13"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -949,71 +972,71 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="37"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="24"/>
       <c r="I3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="33">
         <v>45474</v>
       </c>
-      <c r="K3" s="21"/>
+      <c r="K3" s="33"/>
       <c r="M3" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="27" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="J4" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="35"/>
+      <c r="K4" s="22"/>
       <c r="M4" s="16"/>
     </row>
     <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
       <c r="M5" s="16"/>
     </row>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="27" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="29" t="s">
+      <c r="J6" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="30" t="s">
+      <c r="K6" s="42" t="s">
         <v>6</v>
       </c>
       <c r="M6" s="15" t="s">
@@ -1021,16 +1044,16 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="30"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="42"/>
       <c r="M7" s="16"/>
     </row>
     <row r="8" spans="1:15" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.15">
@@ -1047,18 +1070,18 @@
       <c r="M8" s="16"/>
     </row>
     <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
       <c r="M9" s="16"/>
     </row>
     <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1114,9 +1137,9 @@
         <f>IF(OR(E11="",F11=""),0,F11-E11-G11)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
       <c r="M11" s="16" t="s">
         <v>18</v>
       </c>
@@ -1141,9 +1164,9 @@
         <f t="shared" ref="H12:H41" si="3">IF(OR(E12="",F12=""),0,F12-E12-G12)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
       <c r="M12" s="16" t="s">
         <v>19</v>
       </c>
@@ -1168,9 +1191,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
       <c r="M13" s="16" t="s">
         <v>20</v>
       </c>
@@ -1195,9 +1218,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
       <c r="M14" s="16" t="s">
         <v>21</v>
       </c>
@@ -1222,9 +1245,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
       <c r="M15" s="16" t="s">
         <v>22</v>
       </c>
@@ -1249,9 +1272,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
       <c r="M16" s="16"/>
     </row>
     <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1274,9 +1297,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
       <c r="N17" s="17">
         <v>42005</v>
       </c>
@@ -1308,11 +1331,11 @@
         <f t="shared" si="3"/>
         <v>0.35416666666666669</v>
       </c>
-      <c r="I18" s="32" t="s">
+      <c r="I18" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
       <c r="N18" s="18">
         <v>42036</v>
       </c>
@@ -1344,11 +1367,11 @@
         <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="I19" s="32" t="s">
+      <c r="I19" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
       <c r="N19" s="17">
         <v>42064</v>
       </c>
@@ -1380,11 +1403,11 @@
         <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="I20" s="32" t="s">
+      <c r="I20" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
       <c r="N20" s="18">
         <v>42095</v>
       </c>
@@ -1416,11 +1439,11 @@
         <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="I21" s="32" t="s">
+      <c r="I21" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
       <c r="N21" s="17">
         <v>42125</v>
       </c>
@@ -1452,11 +1475,11 @@
         <f t="shared" si="3"/>
         <v>0.41666666666666669</v>
       </c>
-      <c r="I22" s="32" t="s">
+      <c r="I22" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
       <c r="N22" s="18">
         <v>42156</v>
       </c>
@@ -1482,9 +1505,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
       <c r="N23" s="17">
         <v>42186</v>
       </c>
@@ -1510,9 +1533,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
       <c r="N24" s="18">
         <v>42217</v>
       </c>
@@ -1538,11 +1561,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I25" s="32" t="s">
+      <c r="I25" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
       <c r="N25" s="17">
         <v>42248</v>
       </c>
@@ -1574,11 +1597,11 @@
         <f t="shared" si="3"/>
         <v>0.20833333333333334</v>
       </c>
-      <c r="I26" s="32" t="s">
+      <c r="I26" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
       <c r="N26" s="18">
         <v>42278</v>
       </c>
@@ -1597,16 +1620,24 @@
         <f t="shared" si="2"/>
         <v>水</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+      <c r="E27" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="G27" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="H27" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I27" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
       <c r="N27" s="17">
         <v>42309</v>
       </c>
@@ -1625,16 +1656,24 @@
         <f t="shared" si="2"/>
         <v>木</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+      <c r="E28" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="G28" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="H28" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I28" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
       <c r="N28" s="18">
         <v>42339</v>
       </c>
@@ -1653,16 +1692,24 @@
         <f t="shared" si="2"/>
         <v>金</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+      <c r="E29" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="G29" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="H29" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="I29" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
       <c r="N29" s="17">
         <v>42370</v>
       </c>
@@ -1688,9 +1735,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
       <c r="N30" s="18">
         <v>42401</v>
       </c>
@@ -1716,9 +1763,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
       <c r="N31" s="17">
         <v>42430</v>
       </c>
@@ -1737,16 +1784,24 @@
         <f t="shared" si="2"/>
         <v>月</v>
       </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+      <c r="E32" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="F32" s="6">
+        <v>0.8125</v>
+      </c>
+      <c r="G32" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="H32" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="I32" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
       <c r="N32" s="18">
         <v>42461</v>
       </c>
@@ -1765,16 +1820,24 @@
         <f t="shared" si="2"/>
         <v>火</v>
       </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
+      <c r="E33" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="F33" s="6">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G33" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="H33" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I33" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
       <c r="N33" s="17">
         <v>42491</v>
       </c>
@@ -1793,16 +1856,24 @@
         <f t="shared" si="2"/>
         <v>水</v>
       </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
+      <c r="E34" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="F34" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="G34" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="H34" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I34" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
       <c r="N34" s="18">
         <v>42522</v>
       </c>
@@ -1821,16 +1892,24 @@
         <f t="shared" si="2"/>
         <v>木</v>
       </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
+      <c r="E35" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="F35" s="6">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="G35" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="H35" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
+        <v>0.43749999999999994</v>
+      </c>
+      <c r="I35" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
       <c r="N35" s="17">
         <v>42552</v>
       </c>
@@ -1856,9 +1935,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
+      <c r="I36" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
       <c r="N36" s="18">
         <v>42583</v>
       </c>
@@ -1884,9 +1965,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
       <c r="N37" s="17">
         <v>42614</v>
       </c>
@@ -1912,9 +1993,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
       <c r="N38" s="18">
         <v>42644</v>
       </c>
@@ -1933,16 +2014,19 @@
         <f t="shared" si="2"/>
         <v>月</v>
       </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
+      <c r="E39" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="F39" s="6">
+        <v>0.625</v>
+      </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
       <c r="N39" s="17">
         <v>42675</v>
       </c>
@@ -1968,9 +2052,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I40" s="32"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="32"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
       <c r="N40" s="18">
         <v>42705</v>
       </c>
@@ -1996,31 +2080,31 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I41" s="32"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="32"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
       <c r="N41" s="17">
         <v>42736</v>
       </c>
       <c r="O41" s="17"/>
     </row>
     <row r="42" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="38" t="s">
+      <c r="B42" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="39"/>
-      <c r="D42" s="40"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="28"/>
       <c r="E42" s="10">
         <f>COUNTA(E11:E41)</f>
-        <v>6</v>
-      </c>
-      <c r="F42" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G42" s="41"/>
+      <c r="G42" s="29"/>
       <c r="H42" s="12">
         <f>SUM(H11:H41)</f>
-        <v>1.9791666666666665</v>
+        <v>4.625</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -2037,82 +2121,82 @@
       <c r="O43" s="18"/>
     </row>
     <row r="44" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="42" t="s">
+      <c r="B44" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="42"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="42"/>
-      <c r="K44" s="42"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
       <c r="N44" s="18">
         <v>42826</v>
       </c>
       <c r="O44" s="17"/>
     </row>
     <row r="45" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
       <c r="N45" s="17">
         <v>42856</v>
       </c>
       <c r="O45" s="17"/>
     </row>
     <row r="46" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
       <c r="N46" s="18">
         <v>42887</v>
       </c>
       <c r="O46" s="17"/>
     </row>
     <row r="47" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="34"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
       <c r="N47" s="17">
         <v>42917</v>
       </c>
       <c r="O47" s="17"/>
     </row>
     <row r="48" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
       <c r="N48" s="17">
         <v>42948</v>
       </c>
@@ -2164,7 +2248,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
-      <c r="K51" s="33"/>
+      <c r="K51" s="20"/>
       <c r="M51" s="14" t="s">
         <v>27</v>
       </c>
@@ -2189,7 +2273,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
-      <c r="K52" s="33"/>
+      <c r="K52" s="20"/>
       <c r="M52" s="19"/>
       <c r="N52" s="17">
         <v>43070</v>
@@ -3203,6 +3287,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B9:K9"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
     <mergeCell ref="K51:K52"/>
     <mergeCell ref="B45:K48"/>
     <mergeCell ref="J4:K5"/>
@@ -3219,41 +3335,9 @@
     <mergeCell ref="I39:K39"/>
     <mergeCell ref="I30:K30"/>
     <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B9:K9"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
-  <conditionalFormatting sqref="B11:J41 H42">
+  <conditionalFormatting sqref="H42 B11:J41">
     <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>$D11="日"</formula>
     </cfRule>
@@ -3268,7 +3352,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="89" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="88" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
